--- a/Final Demand/SwFD/SwFD_Min.xlsx
+++ b/Final Demand/SwFD/SwFD_Min.xlsx
@@ -7,93 +7,114 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="1" r:id="rId1"/>
-    <sheet name="2022" sheetId="2" r:id="rId2"/>
-    <sheet name="2023" sheetId="3" r:id="rId3"/>
-    <sheet name="2024" sheetId="4" r:id="rId4"/>
-    <sheet name="2025" sheetId="5" r:id="rId5"/>
-    <sheet name="2026" sheetId="6" r:id="rId6"/>
-    <sheet name="2027" sheetId="7" r:id="rId7"/>
-    <sheet name="2028" sheetId="8" r:id="rId8"/>
-    <sheet name="2029" sheetId="9" r:id="rId9"/>
-    <sheet name="2030" sheetId="10" r:id="rId10"/>
-    <sheet name="2031" sheetId="11" r:id="rId11"/>
-    <sheet name="2032" sheetId="12" r:id="rId12"/>
-    <sheet name="2033" sheetId="13" r:id="rId13"/>
-    <sheet name="2034" sheetId="14" r:id="rId14"/>
-    <sheet name="2035" sheetId="15" r:id="rId15"/>
-    <sheet name="2036" sheetId="16" r:id="rId16"/>
-    <sheet name="2037" sheetId="17" r:id="rId17"/>
-    <sheet name="2038" sheetId="18" r:id="rId18"/>
-    <sheet name="2039" sheetId="19" r:id="rId19"/>
-    <sheet name="2040" sheetId="20" r:id="rId20"/>
-    <sheet name="2041" sheetId="21" r:id="rId21"/>
-    <sheet name="2042" sheetId="22" r:id="rId22"/>
-    <sheet name="2043" sheetId="23" r:id="rId23"/>
-    <sheet name="2044" sheetId="24" r:id="rId24"/>
-    <sheet name="2045" sheetId="25" r:id="rId25"/>
-    <sheet name="2046" sheetId="26" r:id="rId26"/>
-    <sheet name="2047" sheetId="27" r:id="rId27"/>
-    <sheet name="2048" sheetId="28" r:id="rId28"/>
-    <sheet name="2049" sheetId="29" r:id="rId29"/>
-    <sheet name="2050" sheetId="30" r:id="rId30"/>
-    <sheet name="2051" sheetId="31" r:id="rId31"/>
-    <sheet name="2052" sheetId="32" r:id="rId32"/>
-    <sheet name="2053" sheetId="33" r:id="rId33"/>
-    <sheet name="2054" sheetId="34" r:id="rId34"/>
-    <sheet name="2055" sheetId="35" r:id="rId35"/>
-    <sheet name="2056" sheetId="36" r:id="rId36"/>
-    <sheet name="2057" sheetId="37" r:id="rId37"/>
-    <sheet name="2058" sheetId="38" r:id="rId38"/>
-    <sheet name="2059" sheetId="39" r:id="rId39"/>
-    <sheet name="2060" sheetId="40" r:id="rId40"/>
-    <sheet name="2061" sheetId="41" r:id="rId41"/>
-    <sheet name="2062" sheetId="42" r:id="rId42"/>
-    <sheet name="2063" sheetId="43" r:id="rId43"/>
-    <sheet name="2064" sheetId="44" r:id="rId44"/>
-    <sheet name="2065" sheetId="45" r:id="rId45"/>
-    <sheet name="2066" sheetId="46" r:id="rId46"/>
-    <sheet name="2067" sheetId="47" r:id="rId47"/>
-    <sheet name="2068" sheetId="48" r:id="rId48"/>
-    <sheet name="2069" sheetId="49" r:id="rId49"/>
-    <sheet name="2070" sheetId="50" r:id="rId50"/>
-    <sheet name="2071" sheetId="51" r:id="rId51"/>
-    <sheet name="2072" sheetId="52" r:id="rId52"/>
-    <sheet name="2073" sheetId="53" r:id="rId53"/>
-    <sheet name="2074" sheetId="54" r:id="rId54"/>
-    <sheet name="2075" sheetId="55" r:id="rId55"/>
-    <sheet name="2076" sheetId="56" r:id="rId56"/>
-    <sheet name="2077" sheetId="57" r:id="rId57"/>
-    <sheet name="2078" sheetId="58" r:id="rId58"/>
-    <sheet name="2079" sheetId="59" r:id="rId59"/>
-    <sheet name="2080" sheetId="60" r:id="rId60"/>
-    <sheet name="2081" sheetId="61" r:id="rId61"/>
-    <sheet name="2082" sheetId="62" r:id="rId62"/>
-    <sheet name="2083" sheetId="63" r:id="rId63"/>
-    <sheet name="2084" sheetId="64" r:id="rId64"/>
-    <sheet name="2085" sheetId="65" r:id="rId65"/>
-    <sheet name="2086" sheetId="66" r:id="rId66"/>
-    <sheet name="2087" sheetId="67" r:id="rId67"/>
-    <sheet name="2088" sheetId="68" r:id="rId68"/>
-    <sheet name="2089" sheetId="69" r:id="rId69"/>
-    <sheet name="2090" sheetId="70" r:id="rId70"/>
-    <sheet name="2091" sheetId="71" r:id="rId71"/>
-    <sheet name="2092" sheetId="72" r:id="rId72"/>
-    <sheet name="2093" sheetId="73" r:id="rId73"/>
-    <sheet name="2094" sheetId="74" r:id="rId74"/>
-    <sheet name="2095" sheetId="75" r:id="rId75"/>
-    <sheet name="2096" sheetId="76" r:id="rId76"/>
-    <sheet name="2097" sheetId="77" r:id="rId77"/>
-    <sheet name="2098" sheetId="78" r:id="rId78"/>
-    <sheet name="2099" sheetId="79" r:id="rId79"/>
-    <sheet name="2100" sheetId="80" r:id="rId80"/>
+    <sheet name="2000" sheetId="1" r:id="rId1"/>
+    <sheet name="2001" sheetId="2" r:id="rId2"/>
+    <sheet name="2002" sheetId="3" r:id="rId3"/>
+    <sheet name="2003" sheetId="4" r:id="rId4"/>
+    <sheet name="2004" sheetId="5" r:id="rId5"/>
+    <sheet name="2005" sheetId="6" r:id="rId6"/>
+    <sheet name="2006" sheetId="7" r:id="rId7"/>
+    <sheet name="2007" sheetId="8" r:id="rId8"/>
+    <sheet name="2008" sheetId="9" r:id="rId9"/>
+    <sheet name="2009" sheetId="10" r:id="rId10"/>
+    <sheet name="2010" sheetId="11" r:id="rId11"/>
+    <sheet name="2011" sheetId="12" r:id="rId12"/>
+    <sheet name="2012" sheetId="13" r:id="rId13"/>
+    <sheet name="2013" sheetId="14" r:id="rId14"/>
+    <sheet name="2014" sheetId="15" r:id="rId15"/>
+    <sheet name="2015" sheetId="16" r:id="rId16"/>
+    <sheet name="2016" sheetId="17" r:id="rId17"/>
+    <sheet name="2017" sheetId="18" r:id="rId18"/>
+    <sheet name="2018" sheetId="19" r:id="rId19"/>
+    <sheet name="2019" sheetId="20" r:id="rId20"/>
+    <sheet name="2020" sheetId="21" r:id="rId21"/>
+    <sheet name="2021" sheetId="22" r:id="rId22"/>
+    <sheet name="2022" sheetId="23" r:id="rId23"/>
+    <sheet name="2023" sheetId="24" r:id="rId24"/>
+    <sheet name="2024" sheetId="25" r:id="rId25"/>
+    <sheet name="2025" sheetId="26" r:id="rId26"/>
+    <sheet name="2026" sheetId="27" r:id="rId27"/>
+    <sheet name="2027" sheetId="28" r:id="rId28"/>
+    <sheet name="2028" sheetId="29" r:id="rId29"/>
+    <sheet name="2029" sheetId="30" r:id="rId30"/>
+    <sheet name="2030" sheetId="31" r:id="rId31"/>
+    <sheet name="2031" sheetId="32" r:id="rId32"/>
+    <sheet name="2032" sheetId="33" r:id="rId33"/>
+    <sheet name="2033" sheetId="34" r:id="rId34"/>
+    <sheet name="2034" sheetId="35" r:id="rId35"/>
+    <sheet name="2035" sheetId="36" r:id="rId36"/>
+    <sheet name="2036" sheetId="37" r:id="rId37"/>
+    <sheet name="2037" sheetId="38" r:id="rId38"/>
+    <sheet name="2038" sheetId="39" r:id="rId39"/>
+    <sheet name="2039" sheetId="40" r:id="rId40"/>
+    <sheet name="2040" sheetId="41" r:id="rId41"/>
+    <sheet name="2041" sheetId="42" r:id="rId42"/>
+    <sheet name="2042" sheetId="43" r:id="rId43"/>
+    <sheet name="2043" sheetId="44" r:id="rId44"/>
+    <sheet name="2044" sheetId="45" r:id="rId45"/>
+    <sheet name="2045" sheetId="46" r:id="rId46"/>
+    <sheet name="2046" sheetId="47" r:id="rId47"/>
+    <sheet name="2047" sheetId="48" r:id="rId48"/>
+    <sheet name="2048" sheetId="49" r:id="rId49"/>
+    <sheet name="2049" sheetId="50" r:id="rId50"/>
+    <sheet name="2050" sheetId="51" r:id="rId51"/>
+    <sheet name="2051" sheetId="52" r:id="rId52"/>
+    <sheet name="2052" sheetId="53" r:id="rId53"/>
+    <sheet name="2053" sheetId="54" r:id="rId54"/>
+    <sheet name="2054" sheetId="55" r:id="rId55"/>
+    <sheet name="2055" sheetId="56" r:id="rId56"/>
+    <sheet name="2056" sheetId="57" r:id="rId57"/>
+    <sheet name="2057" sheetId="58" r:id="rId58"/>
+    <sheet name="2058" sheetId="59" r:id="rId59"/>
+    <sheet name="2059" sheetId="60" r:id="rId60"/>
+    <sheet name="2060" sheetId="61" r:id="rId61"/>
+    <sheet name="2061" sheetId="62" r:id="rId62"/>
+    <sheet name="2062" sheetId="63" r:id="rId63"/>
+    <sheet name="2063" sheetId="64" r:id="rId64"/>
+    <sheet name="2064" sheetId="65" r:id="rId65"/>
+    <sheet name="2065" sheetId="66" r:id="rId66"/>
+    <sheet name="2066" sheetId="67" r:id="rId67"/>
+    <sheet name="2067" sheetId="68" r:id="rId68"/>
+    <sheet name="2068" sheetId="69" r:id="rId69"/>
+    <sheet name="2069" sheetId="70" r:id="rId70"/>
+    <sheet name="2070" sheetId="71" r:id="rId71"/>
+    <sheet name="2071" sheetId="72" r:id="rId72"/>
+    <sheet name="2072" sheetId="73" r:id="rId73"/>
+    <sheet name="2073" sheetId="74" r:id="rId74"/>
+    <sheet name="2074" sheetId="75" r:id="rId75"/>
+    <sheet name="2075" sheetId="76" r:id="rId76"/>
+    <sheet name="2076" sheetId="77" r:id="rId77"/>
+    <sheet name="2077" sheetId="78" r:id="rId78"/>
+    <sheet name="2078" sheetId="79" r:id="rId79"/>
+    <sheet name="2079" sheetId="80" r:id="rId80"/>
+    <sheet name="2080" sheetId="81" r:id="rId81"/>
+    <sheet name="2081" sheetId="82" r:id="rId82"/>
+    <sheet name="2082" sheetId="83" r:id="rId83"/>
+    <sheet name="2083" sheetId="84" r:id="rId84"/>
+    <sheet name="2084" sheetId="85" r:id="rId85"/>
+    <sheet name="2085" sheetId="86" r:id="rId86"/>
+    <sheet name="2086" sheetId="87" r:id="rId87"/>
+    <sheet name="2087" sheetId="88" r:id="rId88"/>
+    <sheet name="2088" sheetId="89" r:id="rId89"/>
+    <sheet name="2089" sheetId="90" r:id="rId90"/>
+    <sheet name="2090" sheetId="91" r:id="rId91"/>
+    <sheet name="2091" sheetId="92" r:id="rId92"/>
+    <sheet name="2092" sheetId="93" r:id="rId93"/>
+    <sheet name="2093" sheetId="94" r:id="rId94"/>
+    <sheet name="2094" sheetId="95" r:id="rId95"/>
+    <sheet name="2095" sheetId="96" r:id="rId96"/>
+    <sheet name="2096" sheetId="97" r:id="rId97"/>
+    <sheet name="2097" sheetId="98" r:id="rId98"/>
+    <sheet name="2098" sheetId="99" r:id="rId99"/>
+    <sheet name="2099" sheetId="100" r:id="rId100"/>
+    <sheet name="2100" sheetId="101" r:id="rId101"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="10">
   <si>
     <t>FD</t>
   </si>
@@ -502,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4275813449.632025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2747779671.078333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -562,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>959992678.1886234</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14570293257.61561</v>
+        <v>53.52370283002936</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -608,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>18657934968.93189</v>
+        <v>4270527.346630159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -658,7 +679,199 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>4911498232.291676</v>
+        <v>753628.4200128262</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16076347956.87002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>39288994352.61981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8719612828.676636</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>15907259121.50672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>38780308483.61873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8611057085.773333</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14277302115.58967</v>
+        <v>579.2105661331462</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -704,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>20829599548.57212</v>
+        <v>8989535.072804788</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -754,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5262178586.774324</v>
+        <v>1586452.898989239</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14413092650.99057</v>
+        <v>4879.442969303031</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -800,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>23010741073.39934</v>
+        <v>17948355.81103015</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -850,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5662173751.951777</v>
+        <v>3167899.068158773</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15358267403.23616</v>
+        <v>33560.01638906045</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -896,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>25314427591.32166</v>
+        <v>34510020.91886517</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -946,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6173726083.795422</v>
+        <v>6093732.582274339</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16506151845.42264</v>
+        <v>195197.4634665086</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -992,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>27954745268.77166</v>
+        <v>64505883.24027652</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1042,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6767207213.261567</v>
+        <v>11405079.76710063</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17901880402.85146</v>
+        <v>986136.6399635002</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1088,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>31261192346.69938</v>
+        <v>117383092.5418792</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1138,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7505778824.897766</v>
+        <v>20824234.12751712</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18563689583.42992</v>
+        <v>4417790.250203999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1184,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>35678752775.06347</v>
+        <v>206794234.5069892</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1234,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8358882665.653741</v>
+        <v>36983965.79047175</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17436781244.64162</v>
+        <v>17834535.96974497</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1280,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>41748392889.1452</v>
+        <v>350634857.3442296</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1330,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>9304783589.319138</v>
+        <v>63858354.63908409</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16283940775.07307</v>
+        <v>65651130.62997223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1376,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>50063854142.15368</v>
+        <v>570764467.3265889</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1426,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>10644124542.57772</v>
+        <v>108017711.3629244</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15594285211.62217</v>
+        <v>221749544.5750905</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1472,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>61204802660.89379</v>
+        <v>892458928.4334456</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1522,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>12533545885.23993</v>
+        <v>182131590.3626116</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>7161510871.925906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1568,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>3753313760.282122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1618,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>1458072917.322599</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16107786684.33092</v>
+        <v>684389301.0867368</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1664,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>75657474985.8833</v>
+        <v>1343473851.080035</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1714,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>15141073191.19265</v>
+        <v>313126876.4551339</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18435655240.31561</v>
+        <v>1879074679.305615</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1760,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>93734188367.7921</v>
+        <v>1952617896.925662</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1810,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>18589733496.83498</v>
+        <v>553365704.3476362</v>
       </c>
     </row>
   </sheetData>
@@ -1846,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>24153332746.90701</v>
+        <v>4275813449.632024</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1856,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>115501396159.3532</v>
+        <v>2747779671.078333</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1906,7 +2119,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>23066302960.78403</v>
+        <v>959992678.1886235</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>35210331403.66099</v>
+        <v>7161510871.925906</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1952,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>140723518727.6483</v>
+        <v>3753313760.282122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2002,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>28745821173.25975</v>
+        <v>1458072917.322599</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>49957137680.21095</v>
+        <v>8526270301.521568</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2048,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>168827212780.8781</v>
+        <v>4986656171.023158</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2098,7 +2311,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>35343830625.14573</v>
+        <v>1827361514.663346</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>67649639859.0705</v>
+        <v>8827867179.894907</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2144,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>198891003188.0268</v>
+        <v>6454318624.225738</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2194,7 +2407,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>42615038978.30669</v>
+        <v>2119871535.374564</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>96763885124.90215</v>
+        <v>9429564482.233072</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2240,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>229665709779.2312</v>
+        <v>8148251434.470426</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2290,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>51280785693.87306</v>
+        <v>2485656110.644861</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>129190008752.0011</v>
+        <v>10321840672.8367</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2336,7 +2549,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>259632015815.7241</v>
+        <v>10043882481.23245</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2386,7 +2599,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>60171859972.60503</v>
+        <v>2919321035.5</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>140543253036.5274</v>
+        <v>11510473718.96999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2432,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>287100103242.5728</v>
+        <v>12099380231.10546</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2482,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>66280641105.6891</v>
+        <v>3414126270.995668</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>140044900836.8608</v>
+        <v>12574065768.52736</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2528,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>310350096201.4974</v>
+        <v>14258601789.10563</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2578,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>70328208572.98737</v>
+        <v>3913342263.86155</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8526270301.521568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2624,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>4986656171.023158</v>
+        <v>92.94146330266963</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2674,7 +2887,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>1827361514.663346</v>
+        <v>16.40143470047111</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>137562140235.0819</v>
+        <v>13629262039.26144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2720,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>327801658119.1311</v>
+        <v>16461243659.31241</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2770,7 +2983,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>73132033681.13028</v>
+        <v>4419287800.450193</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>132700682154.7993</v>
+        <v>14570293257.61561</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2816,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>338189867004.3032</v>
+        <v>18657934968.93189</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2866,7 +3079,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>74425085004.88742</v>
+        <v>4911498232.291676</v>
       </c>
     </row>
   </sheetData>
@@ -2902,7 +3115,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>126954008255.4343</v>
+        <v>14277302115.58967</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2912,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>340717258209.848</v>
+        <v>20829599548.57212</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2962,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>74232575895.47896</v>
+        <v>5262178586.774324</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>123217931357.538</v>
+        <v>14413092650.99057</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3008,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>335152678860.297</v>
+        <v>23010741073.39934</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3058,7 +3271,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>72835471649.05991</v>
+        <v>5662173751.951777</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>116886774602.376</v>
+        <v>15358267403.23616</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3104,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>321857536194.1151</v>
+        <v>25314427591.32166</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3154,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>69785808140.40195</v>
+        <v>6173726083.795422</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3403,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>100072116784.4511</v>
+        <v>16506151845.42264</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3200,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>301736552287.5069</v>
+        <v>27954745268.77166</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3250,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>64366750961.42715</v>
+        <v>6767207213.261567</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>66756347068.40091</v>
+        <v>17901880402.85146</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3296,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>276127387637.298</v>
+        <v>31261192346.69938</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3346,7 +3559,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>56145734420.71806</v>
+        <v>7505778824.897766</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>29170393249.0341</v>
+        <v>18563689583.42991</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3392,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>246654689689.1946</v>
+        <v>35678752775.06347</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3442,7 +3655,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>46768452985.89434</v>
+        <v>8358882665.653741</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3691,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15204376770.89141</v>
+        <v>17436781244.64162</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3488,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>215074837592.6022</v>
+        <v>41748392889.1452</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3538,7 +3751,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>39643758301.34258</v>
+        <v>9304783589.319138</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3787,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14110899377.4762</v>
+        <v>16283940775.07307</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3584,7 +3797,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>183128632009.4809</v>
+        <v>50063854142.15368</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3634,7 +3847,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>33884695122.04627</v>
+        <v>10644124542.57772</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8827867179.894907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3680,7 +3893,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>6454318624.225738</v>
+        <v>2684.581571108239</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3730,7 +3943,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>2119871535.374564</v>
+        <v>473.749689019101</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13011599415.81254</v>
+        <v>15594285211.62217</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3776,7 +3989,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>152408145334.9116</v>
+        <v>61204802660.89379</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3826,7 +4039,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>28341288327.52567</v>
+        <v>12533545885.23993</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10596532473.35582</v>
+        <v>16107786684.33092</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3872,7 +4085,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>124238802618.1245</v>
+        <v>75657474985.8833</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3922,7 +4135,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>23101887076.70856</v>
+        <v>15141073191.19265</v>
       </c>
     </row>
   </sheetData>
@@ -3958,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8587411539.865035</v>
+        <v>18435655240.31561</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3968,7 +4181,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>99581874414.68968</v>
+        <v>93734188367.7921</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4018,7 +4231,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>18527428793.29626</v>
+        <v>18589733496.83498</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10597913420.11</v>
+        <v>24153332746.90701</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4064,7 +4277,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>78971754381.92586</v>
+        <v>115501396159.3532</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4114,7 +4327,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>15113737885.3194</v>
+        <v>23066302960.78403</v>
       </c>
     </row>
   </sheetData>
@@ -4150,7 +4363,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14769347136.35264</v>
+        <v>35210331403.66099</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4160,7 +4373,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>62506982264.19514</v>
+        <v>140723518727.6483</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4210,7 +4423,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>12671682499.68147</v>
+        <v>28745821173.25975</v>
       </c>
     </row>
   </sheetData>
@@ -4246,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18954129282.40877</v>
+        <v>49957137680.21095</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4256,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>49906261500.34895</v>
+        <v>168827212780.8781</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4306,7 +4519,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>10913001688.30308</v>
+        <v>35343830625.14573</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>22824245478.32024</v>
+        <v>67649639859.0705</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4352,7 +4565,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>40621450656.39908</v>
+        <v>198891003188.0268</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4402,7 +4615,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>9704518567.674637</v>
+        <v>42615038978.30669</v>
       </c>
     </row>
   </sheetData>
@@ -4438,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>24067653058.01698</v>
+        <v>96763885124.90215</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4448,7 +4661,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>33979022717.28213</v>
+        <v>229665709779.2312</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4498,7 +4711,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8670481799.692198</v>
+        <v>51280785693.87306</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18427258224.01255</v>
+        <v>129190008752.0011</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4544,7 +4757,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>29312180975.72601</v>
+        <v>259632015815.7241</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4594,7 +4807,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7220210955.247161</v>
+        <v>60171859972.60503</v>
       </c>
     </row>
   </sheetData>
@@ -4630,7 +4843,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8249145229.777671</v>
+        <v>140543253036.5274</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4640,7 +4853,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>26053436721.06096</v>
+        <v>287100103242.5728</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4690,7 +4903,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5514236995.914159</v>
+        <v>66280641105.6891</v>
       </c>
     </row>
   </sheetData>
@@ -4726,7 +4939,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>9429564482.233072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4736,7 +4949,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>8148251434.470426</v>
+        <v>19086.74985598522</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4786,7 +4999,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>2485656110.644861</v>
+        <v>3368.249974585628</v>
       </c>
     </row>
   </sheetData>
@@ -4822,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1700335114.383941</v>
+        <v>140044900836.8608</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4832,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>23776960907.55404</v>
+        <v>310350096201.4974</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4882,7 +5095,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>4384860401.624093</v>
+        <v>70328208572.98735</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>91468940.98625696</v>
+        <v>137562140235.0819</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4928,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>22199162726.24992</v>
+        <v>327801658119.1311</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4978,7 +5191,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3927662520.297479</v>
+        <v>73132033681.13028</v>
       </c>
     </row>
   </sheetData>
@@ -5014,7 +5227,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>6228560.918357916</v>
+        <v>132700682154.7993</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5024,7 +5237,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>21155054300.5634</v>
+        <v>338189867004.3032</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5074,7 +5287,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3733936938.894274</v>
+        <v>74425085004.88742</v>
       </c>
     </row>
   </sheetData>
@@ -5110,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>20532934.64369284</v>
+        <v>126954008255.4343</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5120,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>20565767176.25532</v>
+        <v>340717258209.848</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5170,7 +5383,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3631534468.286513</v>
+        <v>74232575895.47896</v>
       </c>
     </row>
   </sheetData>
@@ -5206,7 +5419,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>77738262.59893963</v>
+        <v>123217931357.538</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5216,7 +5429,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>20405340701.17332</v>
+        <v>335152678860.297</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5266,7 +5479,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3609580061.410861</v>
+        <v>72835471649.05991</v>
       </c>
     </row>
   </sheetData>
@@ -5302,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>269892703.8593379</v>
+        <v>116886774602.376</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5312,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>20669740043.94334</v>
+        <v>321857536194.1151</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5362,7 +5575,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3677589262.431889</v>
+        <v>69785808140.40195</v>
       </c>
     </row>
   </sheetData>
@@ -5398,7 +5611,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>858648331.9097143</v>
+        <v>100072116784.4511</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5408,7 +5621,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>21350160475.39413</v>
+        <v>301736552287.5069</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5458,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3863080748.22292</v>
+        <v>64366750961.42716</v>
       </c>
     </row>
   </sheetData>
@@ -5494,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2459015374.660012</v>
+        <v>66756347068.40091</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5504,7 +5717,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>22413891653.71</v>
+        <v>276127387637.298</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5554,7 +5767,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>4228616575.290133</v>
+        <v>56145734420.71805</v>
       </c>
     </row>
   </sheetData>
@@ -5590,7 +5803,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>6026408879.283737</v>
+        <v>29170393249.0341</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5600,7 +5813,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>23796126063.98112</v>
+        <v>246654689689.1946</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5650,7 +5863,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>4868917350.819044</v>
+        <v>46768452985.89434</v>
       </c>
     </row>
   </sheetData>
@@ -5686,7 +5899,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>11558262698.35497</v>
+        <v>15204376770.89141</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5696,7 +5909,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>25403937008.33529</v>
+        <v>215074837592.6022</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5746,7 +5959,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>5767299118.281616</v>
+        <v>39643758301.34258</v>
       </c>
     </row>
   </sheetData>
@@ -5782,7 +5995,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10321840672.8367</v>
+        <v>4.490086774529889E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5792,7 +6005,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>10043882481.23245</v>
+        <v>79943.91193009824</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5842,7 +6055,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>2919321035.5</v>
+        <v>14107.74916912397</v>
       </c>
     </row>
   </sheetData>
@@ -5878,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16106727836.99799</v>
+        <v>14110899377.4762</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5888,7 +6101,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>27130278620.16108</v>
+        <v>183128632009.4809</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5938,7 +6151,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6577332653.42036</v>
+        <v>33884695122.04627</v>
       </c>
     </row>
   </sheetData>
@@ -5974,7 +6187,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16963690022.26236</v>
+        <v>13011599415.81254</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5984,7 +6197,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>28872821992.31804</v>
+        <v>152408145334.9116</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6034,7 +6247,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>6980058327.915341</v>
+        <v>28341288327.52567</v>
       </c>
     </row>
   </sheetData>
@@ -6070,7 +6283,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16693052277.65183</v>
+        <v>10596532473.35582</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6080,7 +6293,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>30551092893.84838</v>
+        <v>124238802618.1245</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6130,7 +6343,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7246152920.614298</v>
+        <v>23101887076.70856</v>
       </c>
     </row>
   </sheetData>
@@ -6166,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>17860500055.99913</v>
+        <v>8587411539.865035</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6176,7 +6389,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>32116234760.98545</v>
+        <v>99581874414.68968</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6226,7 +6439,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7652070846.39603</v>
+        <v>18527428793.29626</v>
       </c>
     </row>
   </sheetData>
@@ -6262,7 +6475,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>19633106209.66135</v>
+        <v>10597913420.11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6272,7 +6485,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>33550593730.38935</v>
+        <v>78971754381.92586</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6322,7 +6535,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8102149256.763108</v>
+        <v>15113737885.3194</v>
       </c>
     </row>
   </sheetData>
@@ -6358,7 +6571,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>20145798249.81418</v>
+        <v>14769347136.35264</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6368,7 +6581,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>34858287636.47484</v>
+        <v>62506982264.19514</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6418,7 +6631,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8389884551.840925</v>
+        <v>12671682499.68146</v>
       </c>
     </row>
   </sheetData>
@@ -6454,7 +6667,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>18809121596.00987</v>
+        <v>18954129282.40877</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6464,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>36051270379.42189</v>
+        <v>49906261500.34895</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6514,7 +6727,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8451891290.04287</v>
+        <v>10913001688.30308</v>
       </c>
     </row>
   </sheetData>
@@ -6550,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15978139592.45462</v>
+        <v>22824245478.32024</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6560,7 +6773,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>37136727683.45441</v>
+        <v>40621450656.39908</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6610,7 +6823,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8328889023.039202</v>
+        <v>9704518567.674637</v>
       </c>
     </row>
   </sheetData>
@@ -6646,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12343870869.59236</v>
+        <v>24067653058.01698</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6656,7 +6869,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>38110342806.55018</v>
+        <v>33979022717.28213</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6706,7 +6919,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8096895820.653105</v>
+        <v>8670481799.692198</v>
       </c>
     </row>
   </sheetData>
@@ -6742,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>9142738964.997391</v>
+        <v>18427258224.01255</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6752,7 +6965,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>38956834970.59272</v>
+        <v>29312180975.72601</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6802,7 +7015,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7890595468.045485</v>
+        <v>7220210955.247161</v>
       </c>
     </row>
   </sheetData>
@@ -6838,7 +7051,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>11510473718.96999</v>
+        <v>0.004038568629949947</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6848,7 +7061,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>12099380231.10546</v>
+        <v>262305.1374100734</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6898,7 +7111,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3414126270.995668</v>
+        <v>46289.14234462516</v>
       </c>
     </row>
   </sheetData>
@@ -6934,7 +7147,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8472861915.568848</v>
+        <v>8249145229.777671</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6944,7 +7157,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>39655956369.21401</v>
+        <v>26053436721.06096</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6994,7 +7207,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7939539049.238228</v>
+        <v>5514236995.914159</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +7243,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10338849953.27064</v>
+        <v>1700335114.383941</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7040,7 +7253,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>40190276460.17506</v>
+        <v>23776960907.55404</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7090,7 +7303,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8241162834.185149</v>
+        <v>4384860401.624093</v>
       </c>
     </row>
   </sheetData>
@@ -7126,7 +7339,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12332434789.4358</v>
+        <v>91468940.98625694</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7136,7 +7349,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>40551254339.86781</v>
+        <v>22199162726.24992</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7186,7 +7399,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8526374239.195028</v>
+        <v>3927662520.297479</v>
       </c>
     </row>
   </sheetData>
@@ -7222,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13296032554.42341</v>
+        <v>6228560.918357916</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7232,7 +7445,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>40741696129.96428</v>
+        <v>21155054300.5634</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7282,7 +7495,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8667048032.249893</v>
+        <v>3733936938.894274</v>
       </c>
     </row>
   </sheetData>
@@ -7318,7 +7531,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13552621528.45238</v>
+        <v>20532934.64369284</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7328,7 +7541,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>40774589289.93075</v>
+        <v>20565767176.25532</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7378,7 +7591,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8701362593.541313</v>
+        <v>3631534468.286514</v>
       </c>
     </row>
   </sheetData>
@@ -7414,7 +7627,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13622365068.74807</v>
+        <v>77738262.59893961</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7424,7 +7637,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>40669639318.45334</v>
+        <v>20405340701.17332</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7474,7 +7687,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8690591292.594492</v>
+        <v>3609580061.410861</v>
       </c>
     </row>
   </sheetData>
@@ -7510,7 +7723,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13749012842.23051</v>
+        <v>269892703.8593379</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7520,7 +7733,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>40449133278.12759</v>
+        <v>20669740043.94334</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7570,7 +7783,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8665750436.780157</v>
+        <v>3677589262.431889</v>
       </c>
     </row>
   </sheetData>
@@ -7606,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>14187285693.93613</v>
+        <v>858648331.9097143</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7616,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>40134366590.25098</v>
+        <v>21350160475.39413</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7666,7 +7879,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8658900357.736542</v>
+        <v>3863080748.222919</v>
       </c>
     </row>
   </sheetData>
@@ -7702,7 +7915,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15165167600.6032</v>
+        <v>2459015374.660013</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7712,7 +7925,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>39743224301.20439</v>
+        <v>22413891653.71</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7762,7 +7975,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8698528793.090019</v>
+        <v>4228616575.290132</v>
       </c>
     </row>
   </sheetData>
@@ -7798,7 +8011,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>16076347956.87002</v>
+        <v>6026408879.283737</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7808,7 +8021,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>39288994352.61981</v>
+        <v>23796126063.98112</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7858,7 +8071,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8719612828.676636</v>
+        <v>4868917350.819045</v>
       </c>
     </row>
   </sheetData>
@@ -7894,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12574065768.52736</v>
+        <v>0.1600910164994244</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7904,7 +8117,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>14258601789.10563</v>
+        <v>744814.9557334227</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7954,7 +8167,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>3913342263.861549</v>
+        <v>131437.9511526124</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +8203,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>15907259121.50672</v>
+        <v>11558262698.35497</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8000,7 +8213,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>38780308483.61873</v>
+        <v>25403937008.33529</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8050,7 +8263,871 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>8611057085.773333</v>
+        <v>5767299118.281616</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16106727836.99799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>27130278620.16108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>6577332653.420359</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16963690022.26236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>28872821992.31804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>6980058327.915341</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16693052277.65183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>30551092893.84838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7246152920.614298</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>17860500055.99913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>32116234760.98545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7652070846.396029</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>19633106209.66135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>33550593730.38935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8102149256.763108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>20145798249.81418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>34858287636.47484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8389884551.840926</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>18809121596.00987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>36051270379.42189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8451891290.04287</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>15978139592.45462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>37136727683.45441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8328889023.039203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>12343870869.59236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>38110342806.55018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8096895820.653106</v>
       </c>
     </row>
   </sheetData>
@@ -8086,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13629262039.26144</v>
+        <v>3.601913662868</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8096,7 +9173,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>16461243659.31241</v>
+        <v>1877736.347241518</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8146,7 +9223,967 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>4419287800.450193</v>
+        <v>331365.6379611324</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>9142738964.997391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>38956834970.59272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7890595468.045485</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>8472861915.568849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>39655956369.21401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7939539049.238228</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>10338849953.27064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>40190276460.17506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8241162834.185149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>12332434789.4358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>40551254339.86781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8526374239.195028</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>13296032554.42341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>40741696129.96428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8667048032.249893</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>13552621528.45238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>40774589289.93075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8701362593.541313</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>13622365068.74807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>40669639318.45334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8690591292.594492</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>13749012842.23051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>40449133278.12759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8665750436.780157</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>14187285693.93613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>40134366590.25098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8658900357.736542</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>15165167600.6032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>39743224301.20439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>8698528793.090019</v>
       </c>
     </row>
   </sheetData>

--- a/Final Demand/SwFD/SwFD_Min.xlsx
+++ b/Final Demand/SwFD/SwFD_Min.xlsx
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>53.52370283002936</v>
+        <v>5.352370283002941E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4270527.346630159</v>
+        <v>4.270527346630159</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>753628.4200128262</v>
+        <v>0.7536284200128263</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16076347956.87002</v>
+        <v>16076.34795687001</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39288994352.61981</v>
+        <v>39288.99435261977</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8719612828.676636</v>
+        <v>8719.612828676629</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15907259121.50672</v>
+        <v>15907.25912150669</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38780308483.61873</v>
+        <v>38780.30848361868</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8611057085.773333</v>
+        <v>8611.057085773322</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>579.2105661331462</v>
+        <v>0.0005792105661331465</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8989535.072804788</v>
+        <v>8.989535072804788</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1586452.898989239</v>
+        <v>1.586452898989239</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4879.442969303031</v>
+        <v>0.004879442969303032</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17948355.81103015</v>
+        <v>17.94835581103015</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3167899.068158773</v>
+        <v>3.167899068158773</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>33560.01638906045</v>
+        <v>0.03356001638906046</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34510020.91886517</v>
+        <v>34.51002091886517</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6093732.582274339</v>
+        <v>6.093732582274338</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>195197.4634665086</v>
+        <v>0.1951974634665087</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>64505883.24027652</v>
+        <v>64.5058832402765</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11405079.76710063</v>
+        <v>11.40507976710063</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>986136.6399635002</v>
+        <v>0.9861366399635004</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117383092.5418792</v>
+        <v>117.3830925418792</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20824234.12751712</v>
+        <v>20.82423412751712</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4417790.250203999</v>
+        <v>4.417790250204</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>206794234.5069892</v>
+        <v>206.7942345069892</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>36983965.79047175</v>
+        <v>36.98396579047175</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17834535.96974497</v>
+        <v>17.83453596974497</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>350634857.3442296</v>
+        <v>350.6348573442296</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63858354.63908409</v>
+        <v>63.85835463908408</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>65651130.62997223</v>
+        <v>65.65113062997224</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>570764467.3265889</v>
+        <v>570.7644673265889</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>108017711.3629244</v>
+        <v>108.0177113629244</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>221749544.5750905</v>
+        <v>221.7495445750905</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>892458928.4334456</v>
+        <v>892.4589284334456</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>182131590.3626116</v>
+        <v>182.1315903626116</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>684389301.0867368</v>
+        <v>684.3893010867369</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1343473851.080035</v>
+        <v>1343.473851080036</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>313126876.4551339</v>
+        <v>313.1268764551339</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1879074679.305615</v>
+        <v>1879.074679305615</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1952617896.925662</v>
+        <v>1952.617896925663</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>553365704.3476362</v>
+        <v>553.3657043476362</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4275813449.632024</v>
+        <v>4275.813449632024</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2747779671.078333</v>
+        <v>2747.779671078332</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>959992678.1886235</v>
+        <v>959.9926781886235</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7161510871.925906</v>
+        <v>7161.510871925904</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3753313760.282122</v>
+        <v>3753.313760282122</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1458072917.322599</v>
+        <v>1458.072917322599</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8526270301.521568</v>
+        <v>8526.270301521567</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4986656171.023158</v>
+        <v>4986.656171023159</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1827361514.663346</v>
+        <v>1827.361514663346</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8827867179.894907</v>
+        <v>8827.867179894904</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6454318624.225738</v>
+        <v>6454.318624225738</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2119871535.374564</v>
+        <v>2119.871535374564</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9429564482.233072</v>
+        <v>9429.564482233074</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8148251434.470426</v>
+        <v>8148.251434470425</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2485656110.644861</v>
+        <v>2485.656110644861</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10321840672.8367</v>
+        <v>10321.8406728367</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10043882481.23245</v>
+        <v>10043.88248123245</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2919321035.5</v>
+        <v>2919.321035500001</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11510473718.96999</v>
+        <v>11510.47371896999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12099380231.10546</v>
+        <v>12099.38023110546</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3414126270.995668</v>
+        <v>3414.126270995669</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12574065768.52736</v>
+        <v>12574.06576852737</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14258601789.10563</v>
+        <v>14258.60178910563</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3913342263.86155</v>
+        <v>3913.34226386155</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>92.94146330266963</v>
+        <v>9.29414633026696E-05</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.40143470047111</v>
+        <v>1.640143470047111E-05</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13629262039.26144</v>
+        <v>13629.26203926144</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16461243659.31241</v>
+        <v>16461.24365931241</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4419287800.450193</v>
+        <v>4419.287800450193</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14570293257.61561</v>
+        <v>14570.29325761561</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18657934968.93189</v>
+        <v>18657.93496893189</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4911498232.291676</v>
+        <v>4911.498232291677</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14277302115.58967</v>
+        <v>14277.30211558968</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20829599548.57212</v>
+        <v>20829.59954857211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5262178586.774324</v>
+        <v>5262.178586774326</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14413092650.99057</v>
+        <v>14413.09265099058</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23010741073.39934</v>
+        <v>23010.74107339934</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5662173751.951777</v>
+        <v>5662.173751951779</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15358267403.23616</v>
+        <v>15358.26740323617</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25314427591.32166</v>
+        <v>25314.42759132166</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6173726083.795422</v>
+        <v>6173.726083795422</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16506151845.42264</v>
+        <v>16506.15184542265</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27954745268.77166</v>
+        <v>27954.74526877166</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6767207213.261567</v>
+        <v>6767.207213261567</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17901880402.85146</v>
+        <v>17901.88040285146</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31261192346.69938</v>
+        <v>31261.19234669938</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7505778824.897766</v>
+        <v>7505.778824897766</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18563689583.42991</v>
+        <v>18563.68958342992</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35678752775.06347</v>
+        <v>35678.75277506348</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8358882665.653741</v>
+        <v>8358.882665653744</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17436781244.64162</v>
+        <v>17436.78124464161</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41748392889.1452</v>
+        <v>41748.39288914519</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9304783589.319138</v>
+        <v>9304.783589319135</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16283940775.07307</v>
+        <v>16283.94077507305</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50063854142.15368</v>
+        <v>50063.85414215367</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10644124542.57772</v>
+        <v>10644.12454257772</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2684.581571108239</v>
+        <v>0.002684581571108238</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>473.749689019101</v>
+        <v>0.0004737496890191008</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15594285211.62217</v>
+        <v>15594.28521162216</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>61204802660.89379</v>
+        <v>61204.80266089379</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12533545885.23993</v>
+        <v>12533.54588523993</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16107786684.33092</v>
+        <v>16107.78668433092</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>75657474985.8833</v>
+        <v>75657.47498588334</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15141073191.19265</v>
+        <v>15141.07319119265</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18435655240.31561</v>
+        <v>18435.65524031561</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>93734188367.7921</v>
+        <v>93734.18836779216</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18589733496.83498</v>
+        <v>18589.73349683499</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24153332746.90701</v>
+        <v>24153.332746907</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>115501396159.3532</v>
+        <v>115501.3961593532</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23066302960.78403</v>
+        <v>23066.30296078403</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>35210331403.66099</v>
+        <v>35210.33140366099</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>140723518727.6483</v>
+        <v>140723.5187276483</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28745821173.25975</v>
+        <v>28745.82117325975</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>49957137680.21095</v>
+        <v>49957.13768021096</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>168827212780.8781</v>
+        <v>168827.212780878</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>35343830625.14573</v>
+        <v>35343.83062514571</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>67649639859.0705</v>
+        <v>67649.63985907049</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>198891003188.0268</v>
+        <v>198891.0031880267</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>42615038978.30669</v>
+        <v>42615.03897830667</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>96763885124.90215</v>
+        <v>96763.88512490212</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>229665709779.2312</v>
+        <v>229665.7097792311</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>51280785693.87306</v>
+        <v>51280.78569387305</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>129190008752.0011</v>
+        <v>129190.0087520011</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>259632015815.7241</v>
+        <v>259632.0158157242</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>60171859972.60503</v>
+        <v>60171.85997260504</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140543253036.5274</v>
+        <v>140543.2530365274</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>287100103242.5728</v>
+        <v>287100.1032425727</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>66280641105.6891</v>
+        <v>66280.64110568908</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19086.74985598522</v>
+        <v>0.01908674985598521</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3368.249974585628</v>
+        <v>0.003368249974585627</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140044900836.8608</v>
+        <v>140044.9008368608</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>310350096201.4974</v>
+        <v>310350.0962014974</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>70328208572.98735</v>
+        <v>70328.20857298735</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>137562140235.0819</v>
+        <v>137562.140235082</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>327801658119.1311</v>
+        <v>327801.6581191311</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73132033681.13028</v>
+        <v>73132.03368113028</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132700682154.7993</v>
+        <v>132700.6821547993</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>338189867004.3032</v>
+        <v>338189.8670043033</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>74425085004.88742</v>
+        <v>74425.08500488744</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>126954008255.4343</v>
+        <v>126954.0082554343</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>340717258209.848</v>
+        <v>340717.2582098481</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>74232575895.47896</v>
+        <v>74232.57589547898</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>123217931357.538</v>
+        <v>123217.931357538</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>335152678860.297</v>
+        <v>335152.6788602971</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>72835471649.05991</v>
+        <v>72835.47164905992</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>116886774602.376</v>
+        <v>116886.774602376</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>321857536194.1151</v>
+        <v>321857.536194115</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>69785808140.40195</v>
+        <v>69785.80814040195</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>100072116784.4511</v>
+        <v>100072.1167844511</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>301736552287.5069</v>
+        <v>301736.5522875069</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>64366750961.42716</v>
+        <v>64366.75096142717</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>66756347068.40091</v>
+        <v>66756.34706840088</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>276127387637.298</v>
+        <v>276127.3876372979</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>56145734420.71805</v>
+        <v>56145.73442071803</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29170393249.0341</v>
+        <v>29170.39324903408</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>246654689689.1946</v>
+        <v>246654.6896891947</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>46768452985.89434</v>
+        <v>46768.45298589436</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15204376770.89141</v>
+        <v>15204.37677089141</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>215074837592.6022</v>
+        <v>215074.8375926022</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39643758301.34258</v>
+        <v>39643.75830134258</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12916,7 +12916,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.490086774529889E-05</v>
+        <v>4.490086774529892E-11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>79943.91193009824</v>
+        <v>0.07994391193009824</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14107.74916912397</v>
+        <v>0.01410774916912397</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14110899377.4762</v>
+        <v>14110.89937747621</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>183128632009.4809</v>
+        <v>183128.6320094809</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>33884695122.04627</v>
+        <v>33884.69512204627</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13011599415.81254</v>
+        <v>13011.59941581255</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>152408145334.9116</v>
+        <v>152408.1453349116</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28341288327.52567</v>
+        <v>28341.28832752567</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10596532473.35582</v>
+        <v>10596.53247335582</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>124238802618.1245</v>
+        <v>124238.8026181245</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23101887076.70856</v>
+        <v>23101.88707670857</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8587411539.865035</v>
+        <v>8587.411539865092</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>99581874414.68968</v>
+        <v>99581.87441468965</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18527428793.29626</v>
+        <v>18527.42879329626</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10597913420.11</v>
+        <v>10597.91342011001</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>78971754381.92586</v>
+        <v>78971.75438192589</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15113737885.3194</v>
+        <v>15113.73788531941</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14212,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14769347136.35264</v>
+        <v>14769.34713635258</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>62506982264.19514</v>
+        <v>62506.98226419521</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12671682499.68146</v>
+        <v>12671.68249968147</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18954129282.40877</v>
+        <v>18954.12928240876</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49906261500.34895</v>
+        <v>49906.26150034897</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10913001688.30308</v>
+        <v>10913.00168830308</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22824245478.32024</v>
+        <v>22824.24547832024</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40621450656.39908</v>
+        <v>40621.45065639909</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9704518567.674637</v>
+        <v>9704.518567674639</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24067653058.01698</v>
+        <v>24067.65305801691</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33979022717.28213</v>
+        <v>33979.02271728217</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8670481799.692198</v>
+        <v>8670.481799692197</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15076,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18427258224.01255</v>
+        <v>18427.25822401253</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29312180975.72601</v>
+        <v>29312.18097572604</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7220210955.247161</v>
+        <v>7220.210955247164</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.004038568629949947</v>
+        <v>4.038568629949951E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>262305.1374100734</v>
+        <v>0.2623051374100733</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>46289.14234462516</v>
+        <v>0.04628914234462515</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8249145229.777671</v>
+        <v>8249.14522977769</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26053436721.06096</v>
+        <v>26053.43672106101</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5514236995.914159</v>
+        <v>5514.23699591417</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1700335114.383941</v>
+        <v>1700.335114383972</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23776960907.55404</v>
+        <v>23776.96090755407</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4384860401.624093</v>
+        <v>4384.860401624102</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>91468940.98625694</v>
+        <v>91.46894098626963</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22199162726.24992</v>
+        <v>22199.16272624995</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3927662520.297479</v>
+        <v>3927.662520297486</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6228560.918357916</v>
+        <v>6.228560918358479</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21155054300.5634</v>
+        <v>21155.05430056342</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3733936938.894274</v>
+        <v>3733.936938894278</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20532934.64369284</v>
+        <v>20.53293464369297</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20565767176.25532</v>
+        <v>20565.76717625534</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3631534468.286514</v>
+        <v>3631.534468286516</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>77738262.59893961</v>
+        <v>77.7382625989401</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20405340701.17332</v>
+        <v>20405.34070117332</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3609580061.410861</v>
+        <v>3609.580061410861</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>269892703.8593379</v>
+        <v>269.8927038593394</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20669740043.94334</v>
+        <v>20669.74004394332</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3677589262.431889</v>
+        <v>3677.589262431885</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>858648331.9097143</v>
+        <v>858.6483319097186</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21350160475.39413</v>
+        <v>21350.1604753941</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3863080748.222919</v>
+        <v>3863.080748222915</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2459015374.660013</v>
+        <v>2459.015374660024</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22413891653.71</v>
+        <v>22413.89165370995</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4228616575.290132</v>
+        <v>4228.616575290125</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6026408879.283737</v>
+        <v>6026.408879283759</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23796126063.98112</v>
+        <v>23796.12606398108</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4868917350.819045</v>
+        <v>4868.91735081904</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17668,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1600910164994244</v>
+        <v>1.600910164994245E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>744814.9557334227</v>
+        <v>0.7448149557334226</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>131437.9511526124</v>
+        <v>0.1314379511526124</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11558262698.35497</v>
+        <v>11558.26269835499</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25403937008.33529</v>
+        <v>25403.93700833524</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5767299118.281616</v>
+        <v>5767.29911828161</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16106727836.99799</v>
+        <v>16106.72783699798</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27130278620.16108</v>
+        <v>27130.27862016103</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6577332653.420359</v>
+        <v>6577.33265342035</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16963690022.26236</v>
+        <v>16963.69002226232</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28872821992.31804</v>
+        <v>28872.821992318</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6980058327.915341</v>
+        <v>6980.058327915331</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16693052277.65183</v>
+        <v>16693.05227765183</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30551092893.84838</v>
+        <v>30551.09289384838</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18646,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7246152920.614298</v>
+        <v>7246.152920614296</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17860500055.99913</v>
+        <v>17860.50005599908</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32116234760.98545</v>
+        <v>32116.23476098543</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7652070846.396029</v>
+        <v>7652.070846396021</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19633106209.66135</v>
+        <v>19633.10620966131</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33550593730.38935</v>
+        <v>33550.59373038937</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8102149256.763108</v>
+        <v>8102.149256763108</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20145798249.81418</v>
+        <v>20145.79824981425</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34858287636.47484</v>
+        <v>34858.28763647488</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8389884551.840926</v>
+        <v>8389.884551840942</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18809121596.00987</v>
+        <v>18809.12159600997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36051270379.42189</v>
+        <v>36051.27037942194</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8451891290.04287</v>
+        <v>8451.89129004289</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15978139592.45462</v>
+        <v>15978.1395924546</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37136727683.45441</v>
+        <v>37136.72768345448</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8328889023.039203</v>
+        <v>8328.889023039212</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12343870869.59236</v>
+        <v>12343.87086959231</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38110342806.55018</v>
+        <v>38110.34280655027</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8096895820.653106</v>
+        <v>8096.895820653116</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.601913662868</v>
+        <v>3.601913662868003E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1877736.347241518</v>
+        <v>1.877736347241518</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>331365.6379611324</v>
+        <v>0.3313656379611324</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9142738964.997391</v>
+        <v>9142.738964997376</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38956834970.59272</v>
+        <v>38956.83497059278</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7890595468.045485</v>
+        <v>7890.595468045492</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8472861915.568849</v>
+        <v>8472.86191556891</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39655956369.21401</v>
+        <v>39655.95636921409</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20590,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7939539049.238228</v>
+        <v>7939.539049238248</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10338849953.27064</v>
+        <v>10338.84995327065</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40190276460.17506</v>
+        <v>40190.27646017512</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8241162834.185149</v>
+        <v>8241.162834185159</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12332434789.4358</v>
+        <v>12332.43478943574</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40551254339.86781</v>
+        <v>40551.25433986785</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8526374239.195028</v>
+        <v>8526.374239195031</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13296032554.42341</v>
+        <v>13296.03255442333</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40741696129.96428</v>
+        <v>40741.6961299643</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8667048032.249893</v>
+        <v>8667.04803224989</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13552621528.45238</v>
+        <v>13552.62152845246</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40774589289.93075</v>
+        <v>40774.58928993074</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8701362593.541313</v>
+        <v>8701.36259354132</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13622365068.74807</v>
+        <v>13622.36506874819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40669639318.45334</v>
+        <v>40669.63931845331</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8690591292.594492</v>
+        <v>8690.591292594501</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13749012842.23051</v>
+        <v>13749.01284223055</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40449133278.12759</v>
+        <v>40449.13327812759</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21886,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8665750436.780157</v>
+        <v>8665.750436780158</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14187285693.93613</v>
+        <v>14187.28569393608</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40134366590.25098</v>
+        <v>40134.36659025096</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22102,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8658900357.736542</v>
+        <v>8658.900357736531</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15165167600.6032</v>
+        <v>15165.16760060317</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39743224301.20439</v>
+        <v>39743.22430120434</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8698528793.090019</v>
+        <v>8698.528793090007</v>
       </c>
       <c r="F11">
         <v>0</v>

--- a/Final Demand/SwFD/SwFD_Min.xlsx
+++ b/Final Demand/SwFD/SwFD_Min.xlsx
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.270527346630159</v>
+        <v>4.27053788909239</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7536284200128263</v>
+        <v>0.7536302804473376</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16076.34795687001</v>
+        <v>70659.71050798155</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39288.99435261977</v>
+        <v>353634.2847433367</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8719.612828676629</v>
+        <v>70257.12919415541</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15907.25912150669</v>
+        <v>65821.21804632798</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38780.30848361868</v>
+        <v>353319.1567338975</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8611.057085773322</v>
+        <v>69663.90809544318</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.989535072804788</v>
+        <v>8.989578573111217</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.586452898989239</v>
+        <v>1.586460575513903</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.94835581103015</v>
+        <v>17.9485102478275</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.167899068158773</v>
+        <v>3.167926321711247</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34.51002091886517</v>
+        <v>34.51050808022866</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.093732582274338</v>
+        <v>6.093818551926719</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>64.5058832402765</v>
+        <v>64.5072782613266</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.40507976710063</v>
+        <v>11.40532594728594</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9861366399635004</v>
+        <v>0.9861366399635006</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117.3830925418792</v>
+        <v>117.3867771222961</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.82423412751712</v>
+        <v>20.82488434759069</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>206.7942345069892</v>
+        <v>206.8033261063816</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>36.98396579047175</v>
+        <v>36.98557019036452</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.83453596974497</v>
+        <v>17.83453596974498</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>350.6348573442296</v>
+        <v>350.6560375854507</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63.85835463908408</v>
+        <v>63.86209232871134</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>65.65113062997224</v>
+        <v>65.65113062997233</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>570.7644673265889</v>
+        <v>570.8114623457975</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>108.0177113629244</v>
+        <v>108.0260046016083</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>221.7495445750905</v>
+        <v>221.7495445750917</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>892.4589284334456</v>
+        <v>892.558935351112</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>182.1315903626116</v>
+        <v>182.1492386421999</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>684.3893010867369</v>
+        <v>684.3893010867506</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1343.473851080036</v>
+        <v>1343.679036362111</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>313.1268764551339</v>
+        <v>313.1630856225605</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1879.074679305615</v>
+        <v>1879.074679305761</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1952.617896925663</v>
+        <v>1953.025283436486</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>553.3657043476362</v>
+        <v>553.4375960848565</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4275.813449632024</v>
+        <v>4275.813449633369</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2747.779671078332</v>
+        <v>2748.564330781611</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>959.9926781886235</v>
+        <v>960.1311475481749</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7161.510871925904</v>
+        <v>7161.510871936965</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3753.313760282122</v>
+        <v>3754.782257578373</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1458.072917322599</v>
+        <v>1458.33206390552</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8526.270301521567</v>
+        <v>8526.270301603659</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4986.656171023159</v>
+        <v>4989.32962990613</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1827.361514663346</v>
+        <v>1827.833301534168</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8827.867179894904</v>
+        <v>8827.867180449421</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6454.318624225738</v>
+        <v>6459.05752684437</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2119.871535374564</v>
+        <v>2120.707812368877</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9429.564482233074</v>
+        <v>9429.564485670704</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8148.251434470425</v>
+        <v>8156.437116142582</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2485.656110644861</v>
+        <v>2487.100643086612</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10321.8406728367</v>
+        <v>10321.84069253662</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10043.88248123245</v>
+        <v>10057.67296973834</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2919.321035500001</v>
+        <v>2921.754653307568</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11510.47371896999</v>
+        <v>11510.47382397566</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12099.38023110546</v>
+        <v>12122.06014986398</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3414.126270995669</v>
+        <v>3418.12862126741</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12574.06576852737</v>
+        <v>12574.06629183733</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14258.60178910563</v>
+        <v>14295.04691982208</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3913.34226386155</v>
+        <v>3919.773815662945</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13629.26203926144</v>
+        <v>13629.26448785997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16461.24365931241</v>
+        <v>16518.51972974373</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4419.287800450193</v>
+        <v>4429.395614357519</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14570.29325761561</v>
+        <v>14570.30404787763</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18657.93496893189</v>
+        <v>18746.0465187353</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4911.498232291677</v>
+        <v>4927.048528233809</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14277.30211558968</v>
+        <v>14277.34698554579</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20829.59954857211</v>
+        <v>20962.39758335926</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5262.178586774326</v>
+        <v>5285.618519640382</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14413.09265099058</v>
+        <v>14413.26887681742</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23010.74107339934</v>
+        <v>23206.98710352911</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5662.173751951779</v>
+        <v>5696.824984975046</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15358.26740323617</v>
+        <v>15358.92104817206</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25314.42759132166</v>
+        <v>25598.99648245124</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6173.726083795422</v>
+        <v>6224.016750621623</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16506.15184542265</v>
+        <v>16508.43956837044</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27954.74526877166</v>
+        <v>28359.93072264691</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6767.207213261567</v>
+        <v>6838.96472008996</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17901.88040285146</v>
+        <v>17909.42423664502</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31261.19234669938</v>
+        <v>31828.05833406006</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7505.778824897766</v>
+        <v>7606.652202892725</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18563.68958342992</v>
+        <v>18587.07359352668</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>35678.75277506348</v>
+        <v>36458.45453038537</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8358.882665653744</v>
+        <v>8499.075316407572</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17436.78124464161</v>
+        <v>17504.68843093851</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>41748.39288914519</v>
+        <v>42803.37600443674</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9304.783589319135</v>
+        <v>9498.502323174816</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16283.94077507305</v>
+        <v>16467.73478226123</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>50063.85414215367</v>
+        <v>51468.83474405146</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10644.12454257772</v>
+        <v>10912.48385220804</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15594.28521162216</v>
+        <v>16054.17538585783</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>61204.80266089379</v>
+        <v>63047.44107812417</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12533.54588523993</v>
+        <v>12909.81627888194</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16107.78668433092</v>
+        <v>17158.48689049537</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>75657.47498588334</v>
+        <v>78038.68498005343</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15141.07319119265</v>
+        <v>15678.03118692722</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18435.65524031561</v>
+        <v>20587.95505315784</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>93734.18836779216</v>
+        <v>96768.07794210879</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18589.73349683499</v>
+        <v>19364.27019830472</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24153.332746907</v>
+        <v>28013.38463465627</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>115501.3961593532</v>
+        <v>119314.9157549018</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23066.30296078403</v>
+        <v>24168.17166125167</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>35210.33140366099</v>
+        <v>41127.68390322274</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>140723.5187276483</v>
+        <v>145455.9962091132</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28745.82117325975</v>
+        <v>30238.44786928656</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>49957.13768021096</v>
+        <v>57650.89239892482</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>168827.212780878</v>
+        <v>174630.0754340963</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>35343.83062514571</v>
+        <v>37222.7268464204</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>67649.63985907049</v>
+        <v>76426.04935108624</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>198891.0031880267</v>
+        <v>205928.113449385</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>42615.03897830667</v>
+        <v>44832.03857582915</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>96763.88512490212</v>
+        <v>106236.2532555766</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>229665.7097792311</v>
+        <v>238114.8570340782</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>51280.78569387305</v>
+        <v>53824.29702787525</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>129190.0087520011</v>
+        <v>139445.8080283969</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>259632.0158157242</v>
+        <v>269688.190247444</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>60171.85997260504</v>
+        <v>63086.01224290022</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140543.2530365274</v>
+        <v>151770.5044576194</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>287100.1032425727</v>
+        <v>298981.2048521884</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>66280.64110568908</v>
+        <v>69624.7784757426</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01908674985598521</v>
+        <v>0.01908674988090834</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.003368249974585627</v>
+        <v>0.003368249978983825</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>140044.9008368608</v>
+        <v>152312.5851658489</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>310350.0962014974</v>
+        <v>324305.6767199293</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>70328.20857298735</v>
+        <v>74154.03411279427</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>137562.140235082</v>
+        <v>150785.6981984017</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>327801.6581191311</v>
+        <v>344125.131124094</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73132.03368113028</v>
+        <v>77481.93078250567</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132700.6821547993</v>
+        <v>146684.3954675625</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>338189.8670043033</v>
+        <v>357234.3334949292</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>74425.08500488744</v>
+        <v>79339.61913275589</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>126954.0082554343</v>
+        <v>141407.0150906353</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>340717.2582098481</v>
+        <v>362914.6737289331</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>74232.57589547898</v>
+        <v>79755.65651779081</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>123217.931357538</v>
+        <v>137976.5464623316</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>335152.6788602971</v>
+        <v>361035.5434599654</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>72835.47164905992</v>
+        <v>79042.88211293271</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>116886.774602376</v>
+        <v>132211.2461528153</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>321857.536194115</v>
+        <v>352081.6501570699</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>69785.80814040195</v>
+        <v>76822.19437149509</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>100072.1167844511</v>
+        <v>116306.1015477066</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>301736.5522875069</v>
+        <v>337102.6746766896</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>64366.75096142717</v>
+        <v>72411.6074678538</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>66756.34706840088</v>
+        <v>83946.34228611756</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>276127.3876372979</v>
+        <v>317598.927946954</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>56145.73442071803</v>
+        <v>65374.24100282195</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>29170.39324903408</v>
+        <v>46997.25826343487</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>246654.6896891947</v>
+        <v>295368.1588345068</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>46768.45298589436</v>
+        <v>57345.71032032729</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15204.37677089141</v>
+        <v>33071.3099650587</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>215074.8375926022</v>
+        <v>272339.7503084104</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39643.75830134258</v>
+        <v>51734.54593289595</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07994391193009824</v>
+        <v>0.07994391334885068</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01410774916912397</v>
+        <v>0.01410774941949205</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14110.89937747621</v>
+        <v>31690.06543567122</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>183128.6320094809</v>
+        <v>250413.5690734604</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>33884.69512204627</v>
+        <v>47711.74821823426</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13011.59941581255</v>
+        <v>30859.87617143209</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>152408.1453349116</v>
+        <v>231310.1943180855</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28341.28832752567</v>
+        <v>44248.32118629186</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10596.53247335582</v>
+        <v>30179.79779102898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>124238.8026181245</v>
+        <v>216434.6483559183</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23101.88707670857</v>
+        <v>41547.66057553783</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8587.411539865092</v>
+        <v>32314.9863934102</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>99581.87441468965</v>
+        <v>206760.3222243278</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18527.42879329626</v>
+        <v>40077.66973035833</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10597.91342011001</v>
+        <v>41836.17283402858</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>78971.75438192589</v>
+        <v>202749.3562857842</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15113.73788531941</v>
+        <v>40427.76181630497</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14212,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14769.34713635258</v>
+        <v>57406.1502146631</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>62506.98226419521</v>
+        <v>204330.5442878545</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12671.68249968147</v>
+        <v>42436.79247987807</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18954.12928240876</v>
+        <v>76951.31418227759</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>49906.26150034897</v>
+        <v>210948.1211510766</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10913.00168830308</v>
+        <v>45776.28504691365</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22824.24547832024</v>
+        <v>99997.82221029529</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40621.45065639909</v>
+        <v>221675.2679119584</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9704.518567674639</v>
+        <v>50230.03406011698</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24067.65305801691</v>
+        <v>124078.2405132572</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33979.02271728217</v>
+        <v>235365.1519369304</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8670.481799692197</v>
+        <v>55321.49798053918</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15076,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18427.25822401253</v>
+        <v>142397.2062915375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>29312.18097572604</v>
+        <v>250802.2342690244</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7220.210955247164</v>
+        <v>60081.1296223516</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2623051374100733</v>
+        <v>0.2623051671835952</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04628914234462515</v>
+        <v>0.04628914759877607</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8249.14522977769</v>
+        <v>150176.5600386898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26053.43672106101</v>
+        <v>266823.2205516453</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5514.23699591417</v>
+        <v>63772.73513432778</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1700.335114383972</v>
+        <v>150446.4537053643</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23776.96090755407</v>
+        <v>282395.4698943675</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4384.860401624102</v>
+        <v>66550.76732117069</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>91.46894098626963</v>
+        <v>147538.1221993552</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22199.16272624995</v>
+        <v>296658.7704927315</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3927.662520297486</v>
+        <v>68744.67242282868</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.228560918358479</v>
+        <v>142972.9178803486</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21155.05430056342</v>
+        <v>308944.6092081156</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3733.936938894278</v>
+        <v>70405.51668356241</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.53293464369297</v>
+        <v>137051.1948138589</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20565.76717625534</v>
+        <v>318784.2778584582</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3631.534468286516</v>
+        <v>71483.95956871878</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>77.7382625989401</v>
+        <v>128696.4915804806</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20405.34070117332</v>
+        <v>325909.7449866575</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3609.580061410861</v>
+        <v>71813.09458501911</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>269.8927038593394</v>
+        <v>115242.2483067945</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20669.74004394332</v>
+        <v>330246.4044950739</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3677.589262431885</v>
+        <v>71083.4715201471</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>858.6483319097186</v>
+        <v>95885.58809436169</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21350.1604753941</v>
+        <v>331896.7982576594</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3863.080748222915</v>
+        <v>69223.97745464675</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2459.015374660024</v>
+        <v>75453.33655507461</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22413.89165370995</v>
+        <v>331116.9920893949</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4228.616575290125</v>
+        <v>66816.11443039172</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6026.408879283759</v>
+        <v>60970.87039622725</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23796.12606398108</v>
+        <v>328289.063362887</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4868.91735081904</v>
+        <v>64707.90527799877</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7448149557334226</v>
+        <v>0.744815265599918</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1314379511526124</v>
+        <v>0.1314380058349351</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11558.26269835499</v>
+        <v>53405.95405628251</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25403.93700833524</v>
+        <v>323892.6957792513</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5767.29911828161</v>
+        <v>63091.52944442216</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16106.72783699798</v>
+        <v>50963.99487803539</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27130.27862016103</v>
+        <v>318476.9080794442</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6577.33265342035</v>
+        <v>61864.47340569671</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16963.69002226232</v>
+        <v>50977.63238222615</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28872.821992318</v>
+        <v>312630.758131334</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6980.058327915331</v>
+        <v>60834.31516368539</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16693.05227765183</v>
+        <v>53516.21758563023</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30551.09289384838</v>
+        <v>306950.7297037147</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18646,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7246.152920614296</v>
+        <v>60114.02222847068</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17860.50005599908</v>
+        <v>60892.21895640092</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>32116.23476098543</v>
+        <v>302003.0799643839</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7652.070846396021</v>
+        <v>60060.46327645217</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19633.10620966131</v>
+        <v>73832.13239127655</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>33550.59373038937</v>
+        <v>298281.798051631</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8102.149256763108</v>
+        <v>60841.53462774992</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20145.79824981425</v>
+        <v>91090.04058287147</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34858.28763647488</v>
+        <v>296166.3279954169</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8389.884551840942</v>
+        <v>62385.76173715733</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18809.12159600997</v>
+        <v>110711.2153069485</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36051.27037942194</v>
+        <v>295886.1573607877</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8451.89129004289</v>
+        <v>64516.45038535552</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15978.1395924546</v>
+        <v>130545.6135217959</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>37136.72768345448</v>
+        <v>297500.1183727225</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8328.889023039212</v>
+        <v>67005.0890583924</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12343.87086959231</v>
+        <v>147743.1374321549</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38110.34280655027</v>
+        <v>300895.8956523284</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8096.895820653116</v>
+        <v>69515.17986248039</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.877736347241518</v>
+        <v>1.877738434676437</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3313656379611324</v>
+        <v>0.3313660063320005</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9142.738964997376</v>
+        <v>158799.1571681891</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>38956.83497059278</v>
+        <v>305810.5126647309</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7890.595468045492</v>
+        <v>71610.91185494738</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8472.86191556891</v>
+        <v>162618.2206406096</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39655.95636921409</v>
+        <v>311867.5642691492</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20590,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7939.539049238248</v>
+        <v>73104.14370037512</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10338.84995327065</v>
+        <v>161018.3959543432</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40190.27646017512</v>
+        <v>318623.6627048081</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8241.162834185159</v>
+        <v>74118.63806701734</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12332.43478943574</v>
+        <v>156353.8528140808</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40551.25433986785</v>
+        <v>325616.0584467574</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8526.374239195031</v>
+        <v>74834.30768563284</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13296.03255442333</v>
+        <v>149855.7502967316</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40741.6961299643</v>
+        <v>332405.1500601998</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8667.04803224989</v>
+        <v>75310.37128542375</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13552.62152845246</v>
+        <v>141001.5190004581</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40774.58928993074</v>
+        <v>338608.255379197</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8701.36259354132</v>
+        <v>75421.23345258895</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13622.36506874819</v>
+        <v>128747.5222380004</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40669.63931845331</v>
+        <v>343923.4095984352</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8690.591292594501</v>
+        <v>74997.64664839057</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13749.01284223055</v>
+        <v>112927.8215934939</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40449.13327812759</v>
+        <v>348143.3794531554</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21886,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8665.750436780158</v>
+        <v>73984.60269493198</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14187.28569393608</v>
+        <v>95595.75337498062</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40134.36659025096</v>
+        <v>351160.751012154</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22102,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8658.900357736531</v>
+        <v>72591.29467126033</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15165.16760060317</v>
+        <v>80621.86336851458</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>39743.22430120434</v>
+        <v>352965.2071554538</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8698.528793090007</v>
+        <v>71245.96255203923</v>
       </c>
       <c r="F11">
         <v>0</v>

--- a/Final Demand/SwFD/SwFD_Min.xlsx
+++ b/Final Demand/SwFD/SwFD_Min.xlsx
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.352370283002941E-05</v>
+        <v>7.029114761620367E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.27053788909239</v>
+        <v>4.68478960604254</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7536302804473376</v>
+        <v>0.8267353876644319</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>70659.71050798155</v>
+        <v>76510.4024948903</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>353634.2847433367</v>
+        <v>383819.8582725562</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>70257.12919415541</v>
+        <v>76234.0719985108</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>65821.21804632798</v>
+        <v>71386.2973662491</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>353319.1567338975</v>
+        <v>383475.5317942692</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>69663.90809544318</v>
+        <v>75603.96348804905</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0005792105661331465</v>
+        <v>0.0007589790562800428</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.989578573111217</v>
+        <v>9.550020593837692</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.586460575513903</v>
+        <v>1.685382082859964</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.004879442969303032</v>
+        <v>0.006377666257323978</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.9485102478275</v>
+        <v>18.46989414405498</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.167926321711247</v>
+        <v>3.260101713829145</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03356001638906046</v>
+        <v>0.04374084148236623</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>34.51050808022866</v>
+        <v>34.42783818657926</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.093818551926719</v>
+        <v>6.080360949953205</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1951974634665087</v>
+        <v>0.2536315896097909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>64.5072782613266</v>
+        <v>62.53645547944544</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.40532594728594</v>
+        <v>11.06402637234244</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9861366399635006</v>
+        <v>1.277133321999408</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>117.3867771222961</v>
+        <v>111.0259046749683</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.82488434759069</v>
+        <v>19.73471040979173</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.417790250204</v>
+        <v>5.701554211195023</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>206.8033261063816</v>
+        <v>191.7717985683712</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>36.98557019036452</v>
+        <v>34.47558812376692</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.83453596974498</v>
+        <v>22.9332972846907</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>350.6560375854507</v>
+        <v>320.329246781103</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63.86209232871134</v>
+        <v>59.07683475117336</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>65.65113062997233</v>
+        <v>84.0977605664258</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>570.8114623457975</v>
+        <v>515.6924902716034</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>108.0260046016083</v>
+        <v>100.3487527252453</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>221.7495445750917</v>
+        <v>282.8853148254156</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>892.558935351112</v>
+        <v>799.8442888288143</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>182.1492386421999</v>
+        <v>172.5806937935298</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>684.3893010867506</v>
+        <v>868.8188527421165</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1343.679036362111</v>
+        <v>1196.965842542755</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>313.1630856225605</v>
+        <v>307.7646944135318</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1879.074679305761</v>
+        <v>2368.678076358748</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1953.025283436486</v>
+        <v>1732.22093797163</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>553.4375960848565</v>
+        <v>568.8725008060961</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4275.813449633369</v>
+        <v>5317.677021283954</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2748.564330781611</v>
+        <v>2430.090915121881</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>960.1311475481749</v>
+        <v>1019.692575621686</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7161.510871936965</v>
+        <v>8625.960275183585</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3754.782257578373</v>
+        <v>3312.195787200096</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1458.33206390552</v>
+        <v>1542.945169493617</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8526.270301603659</v>
+        <v>9556.098908638971</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4989.32962990613</v>
+        <v>4394.468930115579</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1827.833301534168</v>
+        <v>1837.283284705772</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8827.867180449421</v>
+        <v>8938.853248119114</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6459.05752684437</v>
+        <v>5683.838891281163</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2120.707812368877</v>
+        <v>1996.236309036708</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9429.564485670704</v>
+        <v>8936.835051113378</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8156.437116142582</v>
+        <v>7175.451641532607</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2487.100643086612</v>
+        <v>2259.237844381097</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10321.84069253662</v>
+        <v>9479.043331766739</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10057.67296973834</v>
+        <v>8851.698628173286</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2921.754653307568</v>
+        <v>2615.291500658257</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11510.47382397566</v>
+        <v>10207.43295471759</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12122.06014986398</v>
+        <v>10682.33748309917</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3418.12862126741</v>
+        <v>3019.277596561285</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12574.06629183733</v>
+        <v>10750.61303750366</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14295.04691982208</v>
+        <v>12628.11439930607</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3919.773815662945</v>
+        <v>3423.003336070758</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.29414633026696E-05</v>
+        <v>0.0001226807425611809</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.640143470047111E-05</v>
+        <v>2.164954280491428E-05</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13629.26448785997</v>
+        <v>11544.04474144903</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16518.51972974373</v>
+        <v>14651.41661504632</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4429.395614357519</v>
+        <v>3868.215746476367</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14570.30404787763</v>
+        <v>12567.80216216131</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18746.0465187353</v>
+        <v>16731.20546504193</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4927.048528233809</v>
+        <v>4348.988132763885</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14277.34698554579</v>
+        <v>12560.12028525018</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20962.39758335926</v>
+        <v>18881.35880887528</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5285.618519640382</v>
+        <v>4727.573416267227</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14413.26887681742</v>
+        <v>12885.18474295501</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23206.98710352911</v>
+        <v>21172.1740361155</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5696.824984975046</v>
+        <v>5167.953200034992</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15358.92104817206</v>
+        <v>14072.41258970253</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25598.99648245124</v>
+        <v>23753.09106352035</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6224.016750621623</v>
+        <v>5755.323351241782</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16508.43956837044</v>
+        <v>15596.31513324322</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>28359.93072264691</v>
+        <v>26872.87960768279</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6838.96472008996</v>
+        <v>6475.196775637712</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17909.42423664502</v>
+        <v>17800.03590224712</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31828.05833406006</v>
+        <v>30892.37244700845</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7606.652202892725</v>
+        <v>7429.376904623722</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18587.07359352668</v>
+        <v>19371.66010553505</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>36458.45453038537</v>
+        <v>36283.9983766625</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8499.075316407572</v>
+        <v>8555.465215450871</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17504.68843093851</v>
+        <v>18422.06266936812</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>42803.37600443674</v>
+        <v>43613.03368580856</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9498.502323174816</v>
+        <v>9743.313561412349</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16467.73478226123</v>
+        <v>17187.34779007413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>51468.83474405146</v>
+        <v>53495.90969990967</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10912.48385220804</v>
+        <v>11350.15996293347</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.002684581571108238</v>
+        <v>0.00353811431483929</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0004737496890191008</v>
+        <v>0.0006243731143834042</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16054.17538585783</v>
+        <v>16809.45519238937</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>63047.44107812417</v>
+        <v>66534.51238260396</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12909.81627888194</v>
+        <v>13609.1017817054</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17158.48689049537</v>
+        <v>18306.83178697565</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>78038.68498005343</v>
+        <v>83236.7645478526</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15678.03118692722</v>
+        <v>16722.9332233373</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20587.95505315784</v>
+        <v>22317.88506894634</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>96768.07794210879</v>
+        <v>103933.8912571025</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19364.27019830472</v>
+        <v>20821.03993538467</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>28013.38463465627</v>
+        <v>30729.35275742723</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>119314.9157549018</v>
+        <v>128703.5786440546</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24168.17166125167</v>
+        <v>26126.76875990678</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41127.68390322274</v>
+        <v>45149.86945166756</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>145455.9962091132</v>
+        <v>157306.80982925</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30238.44786928656</v>
+        <v>32776.6774252817</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>57650.89239892482</v>
+        <v>62651.83966522472</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>174630.0754340963</v>
+        <v>189144.6710180106</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>37222.7268464204</v>
+        <v>40339.78687447782</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>76426.04935108624</v>
+        <v>82433.10591304633</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>205928.113449385</v>
+        <v>223242.485910935</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>44832.03857582915</v>
+        <v>48554.96679815055</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>106236.2532555766</v>
+        <v>114424.2867828849</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>238114.8570340782</v>
+        <v>258269.1089066814</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>53824.29702787525</v>
+        <v>58290.71121431008</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>139445.8080283969</v>
+        <v>150218.4394149926</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>269688.190247444</v>
+        <v>292599.3955923896</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63086.01224290022</v>
+        <v>68326.12517025747</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>151770.5044576194</v>
+        <v>163213.9806566286</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>298981.2048521884</v>
+        <v>324425.2571635317</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>69624.7784757426</v>
+        <v>75386.4027096604</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01908674988090834</v>
+        <v>0.02497970185819409</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.003368249978983825</v>
+        <v>0.004408182680857781</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>152312.5851658489</v>
+        <v>163444.5053011633</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>324305.6767199293</v>
+        <v>351913.1441982461</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>74154.03411279427</v>
+        <v>80262.82015341452</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>150785.6981984017</v>
+        <v>161640.9249995789</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>344125.131124094</v>
+        <v>373394.1345620952</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>77481.93078250567</v>
+        <v>83853.18534751251</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>146684.3954675625</v>
+        <v>157250.0118263641</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>357234.3334949292</v>
+        <v>387560.6444988971</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>79339.61913275589</v>
+        <v>85865.27844783277</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>141407.0150906353</v>
+        <v>151693.9665300867</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>362914.6737289331</v>
+        <v>393636.1533536473</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>79755.65651779081</v>
+        <v>86320.08870300621</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>137976.5464623316</v>
+        <v>148185.1451594555</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>361035.5434599654</v>
+        <v>391485.3879682365</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>79042.88211293271</v>
+        <v>85550.67282910542</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132211.2461528153</v>
+        <v>142192.8155731165</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>352081.6501570699</v>
+        <v>381643.3582990611</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>76822.19437149509</v>
+        <v>83148.02966547472</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>116306.1015477066</v>
+        <v>125253.5993850405</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>337102.6746766896</v>
+        <v>365259.6329980232</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>72411.6074678538</v>
+        <v>78374.64889210665</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>83946.34228611756</v>
+        <v>90414.6306386232</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>317598.927946954</v>
+        <v>343972.987355563</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>65374.24100282195</v>
+        <v>70747.18548664573</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>46997.25826343487</v>
+        <v>50445.18943841712</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>295368.1588345068</v>
+        <v>319743.9860639343</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>57345.71032032729</v>
+        <v>62030.43035411319</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>33071.3099650587</v>
+        <v>35406.57972401065</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>272339.7503084104</v>
+        <v>294674.1496767364</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>51734.54593289595</v>
+        <v>55935.38494496775</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -12916,7 +12916,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.490086774529892E-11</v>
+        <v>5.926818452057253E-11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07994391334885068</v>
+        <v>0.1025922249986559</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01410774941949205</v>
+        <v>0.01810451030046581</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>31690.06543567122</v>
+        <v>33982.09163724449</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>250413.5690734604</v>
+        <v>270830.5003021339</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>47711.74821823426</v>
+        <v>51569.40566007041</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30859.87617143209</v>
+        <v>33229.16179397513</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>231310.1943180855</v>
+        <v>250082.7497634038</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>44248.32118629186</v>
+        <v>47824.3790464672</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30179.79779102898</v>
+        <v>32701.63376038329</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>216434.6483559183</v>
+        <v>233955.3580250591</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41547.66057553783</v>
+        <v>44919.75451374583</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>32314.9863934102</v>
+        <v>35205.22870116101</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>206760.3222243278</v>
+        <v>223501.6772758468</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40077.66973035833</v>
+        <v>43353.16453835034</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>41836.17283402858</v>
+        <v>45623.12420815562</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>202749.3562857842</v>
+        <v>219217.8483039677</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40427.76181630497</v>
+        <v>43754.73866500507</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14212,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>57406.1502146631</v>
+        <v>62377.36883405023</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>204330.5442878545</v>
+        <v>221019.3780346343</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>42436.79247987807</v>
+        <v>45934.23841250968</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>76951.31418227759</v>
+        <v>83211.44930036427</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>210948.1211510766</v>
+        <v>228294.9247874412</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>45776.28504691365</v>
+        <v>49533.05625730134</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>99997.82221029529</v>
+        <v>107797.0959836504</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>221675.2679119584</v>
+        <v>240030.5106177492</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>50230.03406011698</v>
+        <v>54335.78051242671</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>124078.2405132572</v>
+        <v>133581.1244243466</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>235365.1519369304</v>
+        <v>254974.4524474185</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>55321.49798053918</v>
+        <v>59837.8387666287</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15076,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>142397.2062915375</v>
+        <v>153158.9966670907</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>250802.2342690244</v>
+        <v>271802.320623785</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>60081.1296223516</v>
+        <v>64982.78170054078</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.038568629949951E-09</v>
+        <v>5.326710829105201E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2623051671835952</v>
+        <v>0.3246765251308386</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04628914759877607</v>
+        <v>0.0572958579678871</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>150176.5600386898</v>
+        <v>161322.8759155462</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>266823.2205516453</v>
+        <v>289248.5290942049</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63772.73513432778</v>
+        <v>68968.62206606418</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>150446.4537053643</v>
+        <v>161431.7730452552</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>282395.4698943675</v>
+        <v>306191.3323225022</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>66550.76732117069</v>
+        <v>71970.62819919542</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>147538.1221993552</v>
+        <v>158246.7715439291</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>296658.7704927315</v>
+        <v>321697.781038088</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>68744.67242282868</v>
+        <v>74353.17126977237</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>142972.9178803486</v>
+        <v>153401.7812581224</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>308944.6092081156</v>
+        <v>335044.1541487778</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>70405.51668356241</v>
+        <v>76170.08132944499</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>137051.1948138589</v>
+        <v>147170.3466116098</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>318784.2778584582</v>
+        <v>345724.3127232292</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71483.95956871878</v>
+        <v>77362.43356813437</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>128696.4915804806</v>
+        <v>138347.2576413084</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>325909.7449866575</v>
+        <v>353450.2892645186</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71813.09458501911</v>
+        <v>77745.4979741454</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>115242.2483067945</v>
+        <v>124019.1098311683</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>330246.4044950739</v>
+        <v>358144.1376560911</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71083.4715201471</v>
+        <v>76981.8077375446</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>95885.58809436169</v>
+        <v>103286.44936704</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>331896.7982576594</v>
+        <v>359920.0412839241</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>69223.97745464675</v>
+        <v>74991.57355493878</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>75453.33655507461</v>
+        <v>81349.93390873796</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>331116.9920893949</v>
+        <v>359058.4960479083</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>66816.11443039172</v>
+        <v>72402.14555386975</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>60970.87039622725</v>
+        <v>65809.32465041555</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>328289.063362887</v>
+        <v>355976.33138377</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>64707.90527799877</v>
+        <v>70131.49978051541</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17668,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.600910164994245E-07</v>
+        <v>2.109387727219925E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.744815265599918</v>
+        <v>0.8819949209090701</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1314380058349351</v>
+        <v>0.1556461859510068</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>53405.95405628251</v>
+        <v>57719.69998188348</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>323892.6957792513</v>
+        <v>351195.8298673171</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>63091.52944442216</v>
+        <v>68389.03468045479</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>50963.99487803539</v>
+        <v>55189.63451432114</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>318476.9080794442</v>
+        <v>345314.055837621</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>61864.47340569671</v>
+        <v>67069.95617228255</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>50977.63238222615</v>
+        <v>55348.24951321216</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>312630.758131334</v>
+        <v>338971.1138353939</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>60834.31516368539</v>
+        <v>65968.23735477283</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>53516.21758563023</v>
+        <v>58234.77869235621</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>306950.7297037147</v>
+        <v>332814.8147924044</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18646,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>60114.02222847068</v>
+        <v>65202.55710565342</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>60892.21895640092</v>
+        <v>66294.81221284923</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>302003.0799643839</v>
+        <v>327459.8477683722</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>60060.46327645217</v>
+        <v>65153.12220499665</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>73832.13239127655</v>
+        <v>80252.95670928938</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>298281.798051631</v>
+        <v>323442.1451537058</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>60841.53462774992</v>
+        <v>65995.0208052809</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>91090.04058287147</v>
+        <v>98735.60891056895</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>296166.3279954169</v>
+        <v>321172.9575929371</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>62385.76173715733</v>
+        <v>67648.20396398022</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>110711.2153069485</v>
+        <v>119675.7269195269</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>295886.1573607877</v>
+        <v>320900.3795855629</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>64516.45038535552</v>
+        <v>69926.781741452</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>130545.6135217959</v>
+        <v>140835.8160636073</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>297500.1183727225</v>
+        <v>322686.8862126514</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19726,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>67005.0890583924</v>
+        <v>72593.16863282949</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>147743.1374321549</v>
+        <v>159183.8416299952</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>300895.8956523284</v>
+        <v>326408.8762629476</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>69515.17986248039</v>
+        <v>75288.65991378762</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.601913662868003E-06</v>
+        <v>4.739059336323597E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.877738434676437</v>
+        <v>2.13354193167433</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3313660063320005</v>
+        <v>0.3765079262693833</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>158799.1571681891</v>
+        <v>170927.1642428508</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>305810.5126647309</v>
+        <v>331779.0627489449</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71610.91185494738</v>
+        <v>77541.15350555541</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>162618.2206406096</v>
+        <v>174891.8758683159</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>311867.5642691492</v>
+        <v>338387.0886353881</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20590,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73104.14370037512</v>
+        <v>79147.79923475067</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>161018.3959543432</v>
+        <v>173082.4336516404</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>318623.6627048081</v>
+        <v>345750.1451978408</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>74118.63806701734</v>
+        <v>80246.11302235026</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>156353.8528140808</v>
+        <v>168067.7290864659</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>325616.0584467574</v>
+        <v>353364.8230778022</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>74834.30768563284</v>
+        <v>81032.69031091883</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>149855.7502967316</v>
+        <v>161165.5976420667</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>332405.1500601998</v>
+        <v>360753.345739141</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>75310.37128542375</v>
+        <v>81569.64375733296</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>141001.5190004581</v>
+        <v>151771.4825067029</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>338608.255379197</v>
+        <v>367500.2421449831</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>75421.23345258895</v>
+        <v>81716.48196423854</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>128747.5222380004</v>
+        <v>138719.3534136708</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>343923.4095984352</v>
+        <v>373278.1305773649</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>74997.64664839057</v>
+        <v>81285.87276876639</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21772,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>112927.8215934939</v>
+        <v>121802.1775570346</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>348143.3794531554</v>
+        <v>377862.838543591</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -21886,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>73984.60269493198</v>
+        <v>80215.25267416044</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>95595.75337498062</v>
+        <v>103223.8633523694</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>351160.751012154</v>
+        <v>381138.8097018013</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22102,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>72591.29467126033</v>
+        <v>78729.10809763998</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>80621.86336851458</v>
+        <v>87167.94110520961</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>352965.2071554538</v>
+        <v>383096.0260337127</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>71245.96255203923</v>
+        <v>77290.50785424057</v>
       </c>
       <c r="F11">
         <v>0</v>
